--- a/DATA_goal/Junction_Flooding_103.xlsx
+++ b/DATA_goal/Junction_Flooding_103.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41535.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.01</v>
+        <v>4.1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>48.28</v>
+        <v>4.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>222.69</v>
+        <v>22.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.02</v>
+        <v>4.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.71</v>
+        <v>2.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.82</v>
+        <v>4.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41535.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>52.24</v>
+        <v>5.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41535.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.64</v>
+        <v>4.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.16</v>
+        <v>3.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>53.61</v>
+        <v>5.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>215.84</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>26.44</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>10.68</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.42</v>
+        <v>4.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41535.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41535.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>85.31999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>16.85</v>
+        <v>1.69</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41535.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>27.14</v>
+        <v>2.71</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>22.18</v>
+        <v>2.22</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>36.2</v>
+        <v>3.62</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>141.45</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>32.74</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>5.06</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41535.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.8</v>
+        <v>4.68</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.46</v>
+        <v>3.85</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>63.78</v>
+        <v>6.38</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.25</v>
+        <v>1.72</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.79</v>
+        <v>1.88</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.83</v>
+        <v>1.98</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.01</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>249.05</v>
+        <v>24.91</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.07</v>
+        <v>4.71</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.73</v>
+        <v>3.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.65</v>
+        <v>1.66</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.4</v>
+        <v>3.14</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.72</v>
+        <v>1.97</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>57.9</v>
+        <v>5.79</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41535.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>22.7</v>
+        <v>2.27</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC9" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>59.11</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AD9" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41535.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S10" s="4" t="n">
+      <c r="AG10" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH10" s="4" t="n">
         <v>0.13</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.31</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_103.xlsx
+++ b/DATA_goal/Junction_Flooding_103.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41535.34027777778</v>
+        <v>44784.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.93</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.3</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.1</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.3</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.83</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.34</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>22.27</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.12</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>1.31</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.28</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41535.34722222222</v>
+        <v>44784.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.42</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.06</v>
+        <v>3.94</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.82</v>
+        <v>3.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.41</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.95</v>
+        <v>4.96</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.6</v>
+        <v>2.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.52</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.43</v>
+        <v>1.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.54</v>
+        <v>2.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.36</v>
+        <v>1.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.22</v>
+        <v>20.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.12</v>
+        <v>3.95</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.36</v>
+        <v>1.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.72</v>
+        <v>2.65</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.36</v>
+        <v>1.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.9</v>
+        <v>2.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.13</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.36</v>
+        <v>1.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.42</v>
+        <v>1.69</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.81</v>
+        <v>4.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.78</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41535.35416666666</v>
+        <v>44784.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.06</v>
+        <v>4.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>1.47</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="W4" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>1.63</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.43</v>
-      </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.84</v>
+        <v>5.65</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41535.36111111111</v>
+        <v>44784.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.05</v>
+        <v>1.14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.24</v>
+        <v>3.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.17</v>
+        <v>2.7</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.12</v>
+        <v>4.75</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.37</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.66</v>
+        <v>16.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.24</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.49</v>
+        <v>2.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.88</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.09</v>
+        <v>4.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41535.36805555555</v>
+        <v>44784.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.78</v>
+        <v>11.16</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.69</v>
+        <v>23.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.37</v>
+        <v>20.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.61</v>
+        <v>8.58</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.18</v>
+        <v>35.65</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>13.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.41</v>
+        <v>6.01</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.6</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.68</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.71</v>
+        <v>10.16</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.2</v>
+        <v>2.76</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.61</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.85</v>
+        <v>12.35</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.53</v>
+        <v>7.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>124.16</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.69</v>
+        <v>24.05</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.11</v>
+        <v>16.27</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.59</v>
+        <v>8.74</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.04</v>
+        <v>17.51</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.5</v>
+        <v>6.79</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.45</v>
+        <v>6.59</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.53</v>
+        <v>7.14</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.71</v>
+        <v>10.21</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.94</v>
+        <v>32.14</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.31</v>
+        <v>4.67</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41535.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41535.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41535.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41535.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41535.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>77.31</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>6.42</v>
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_103.xlsx
+++ b/DATA_goal/Junction_Flooding_103.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44784.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.94</v>
+        <v>39.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.96</v>
+        <v>49.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>209.75</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>39.49</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.44</v>
+        <v>44.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.47</v>
+        <v>44.71</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.75</v>
+        <v>37.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.26</v>
+        <v>62.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.47</v>
+        <v>24.66</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.05</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.85</v>
+        <v>238.52</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.49</v>
+        <v>44.95</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.04</v>
+        <v>30.37</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.15</v>
+        <v>31.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.24</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.07</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.65</v>
+        <v>56.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.75</v>
+        <v>47.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.99</v>
+        <v>169.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.34</v>
+        <v>23.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.29</v>
+        <v>42.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_103.xlsx
+++ b/DATA_goal/Junction_Flooding_103.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.47</v>
+        <v>18.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.2</v>
+        <v>14.197</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.36</v>
+        <v>39.358</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.3</v>
+        <v>33.305</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.12</v>
+        <v>14.123</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.56</v>
+        <v>49.559</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.53</v>
+        <v>21.533</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.82</v>
+        <v>9.823</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.17</v>
+        <v>15.173</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.2</v>
+        <v>16.204</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.61</v>
+        <v>16.612</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.49</v>
+        <v>4.492</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.09</v>
+        <v>14.091</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.25</v>
+        <v>20.253</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.7</v>
+        <v>11.695</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>209.75</v>
+        <v>209.746</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.49</v>
+        <v>39.491</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.9</v>
+        <v>12.905</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.55</v>
+        <v>26.546</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.59</v>
+        <v>14.592</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.54</v>
+        <v>26.539</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.027</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.25</v>
+        <v>11.253</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.64</v>
+        <v>11.637</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>16.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.37</v>
+        <v>44.375</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.18</v>
+        <v>16.175</v>
       </c>
     </row>
     <row r="4">
@@ -863,88 +863,88 @@
         <v>44784.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.83</v>
+        <v>20.827</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.81</v>
+        <v>15.806</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.71</v>
+        <v>44.708</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.49</v>
+        <v>37.486</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.08</v>
+        <v>16.078</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>62.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.66</v>
+        <v>24.658</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.2</v>
+        <v>11.203</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.01</v>
+        <v>17.011</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.16</v>
+        <v>18.162</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.96</v>
+        <v>18.958</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.15</v>
+        <v>5.147</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.021</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.05</v>
+        <v>23.051</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.33</v>
+        <v>13.331</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.576</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>238.52</v>
+        <v>238.517</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.95</v>
+        <v>44.945</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.72</v>
+        <v>14.723</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.37</v>
+        <v>30.366</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.32</v>
+        <v>16.322</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.13</v>
+        <v>2.128</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.47</v>
+        <v>31.469</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.76</v>
+        <v>12.758</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>12.24</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.36</v>
+        <v>13.363</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>19.07</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>56.52</v>
+        <v>56.516</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.702</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.44</v>
+        <v>18.444</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_103.xlsx
+++ b/DATA_goal/Junction_Flooding_103.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,91 +967,91 @@
         <v>44784.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.03</v>
+        <v>15.029</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.39</v>
+        <v>11.391</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.677</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.23</v>
+        <v>32.227</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.04</v>
+        <v>27.039</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>47.47</v>
+        <v>47.471</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.779</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.09</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.08</v>
+        <v>13.077</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.68</v>
+        <v>13.682</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.718</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.538</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>16.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>169.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.43</v>
+        <v>32.427</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.604</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.774</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.4</v>
+        <v>23.401</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.18</v>
+        <v>9.182</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.76</v>
+        <v>13.756</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
@@ -1060,10 +1060,114 @@
         <v>42.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.28</v>
+        <v>6.285</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.29</v>
+        <v>13.289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.16</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_103.xlsx
+++ b/DATA_goal/Junction_Flooding_103.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,91 +967,91 @@
         <v>44784.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.029</v>
+        <v>15.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.391</v>
+        <v>11.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.227</v>
+        <v>32.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.039</v>
+        <v>27.04</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>11.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>47.471</v>
+        <v>47.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.779</v>
+        <v>17.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.090999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>12.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.077</v>
+        <v>13.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.682</v>
+        <v>13.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.718</v>
+        <v>3.72</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.538</v>
+        <v>11.54</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>16.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.621</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>169.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.427</v>
+        <v>32.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.604</v>
+        <v>10.6</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>21.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.774</v>
+        <v>11.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.401</v>
+        <v>23.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.182</v>
+        <v>9.18</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>8.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.632</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.756</v>
+        <v>13.76</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
@@ -1060,114 +1060,10 @@
         <v>42.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.285</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.289</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.14</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.85</v>
+        <v>13.29</v>
       </c>
     </row>
   </sheetData>
